--- a/docs/機能一覧表.xlsx
+++ b/docs/機能一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nando\Documents\GitHub\movgame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC2FE3E-DEE3-4DB1-AE43-1700527F2B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C774B9-CF36-4BD2-9887-6B4181097476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>種別</t>
     <rPh sb="0" eb="2">
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ライフ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>道に落ちているアイテムで速度の切り替えが行えること。また一定時間後元に戻ること</t>
     <rPh sb="0" eb="1">
       <t>ミチ</t>
@@ -171,29 +167,6 @@
     <t>検討中</t>
     <rPh sb="0" eb="3">
       <t>ケントウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライフの初期値は１。アイテム獲得やスコア到達でカウントアップすること
-敵に衝突したら1減り、0になったらゲームオーバーになること</t>
-    <rPh sb="4" eb="7">
-      <t>ショキチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクトク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウタツ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヘ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -695,6 +668,41 @@
     <rPh sb="21" eb="23">
       <t>イチラン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装完了</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に衝突したら1減り、0になったらゲームオーバーになること</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフの初期値は１。アイテム獲得やスコア到達でカウントアップすること</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -745,7 +753,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,8 +772,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1114,23 +1134,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1164,9 +1227,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1195,9 +1255,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,6 +1308,60 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1568,13 +1679,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -1591,415 +1702,435 @@
   <sheetData>
     <row r="1" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="14">
+        <v>44515</v>
+      </c>
+      <c r="G3" s="15">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D5" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="62">
+        <v>44515</v>
+      </c>
+      <c r="G5" s="67">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="21">
+        <v>44515</v>
+      </c>
+      <c r="G6" s="18">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="14">
+        <v>44515</v>
+      </c>
+      <c r="G7" s="15">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11">
+        <v>44515</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="14">
+        <v>44515</v>
+      </c>
+      <c r="G16" s="15">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E19" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="14">
+        <v>44515</v>
+      </c>
+      <c r="G19" s="15">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="F20" s="21">
+        <v>44515</v>
+      </c>
+      <c r="G20" s="18">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="20">
-        <v>44515</v>
-      </c>
-      <c r="G3" s="21">
+      <c r="F21" s="2"/>
+      <c r="G21" s="3">
         <v>44508</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="27">
-        <v>44515</v>
-      </c>
-      <c r="G5" s="24">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="20">
-        <v>44515</v>
-      </c>
-      <c r="G6" s="21">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="16">
-        <v>44515</v>
-      </c>
-      <c r="G7" s="8">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="20">
-        <v>44515</v>
-      </c>
-      <c r="G15" s="21">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="20">
-        <v>44515</v>
-      </c>
-      <c r="G18" s="21">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="27">
-        <v>44515</v>
-      </c>
-      <c r="G19" s="24">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8">
-        <v>44508</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-    </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="14"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2019,216 +2150,216 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.796875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="31"/>
-    <col min="3" max="3" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="31"/>
-    <col min="5" max="5" width="44.69921875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="31"/>
+    <col min="1" max="1" width="2.796875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="24"/>
+    <col min="3" max="3" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="24"/>
+    <col min="5" max="5" width="44.69921875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="E2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="G2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="35" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30">
+        <v>44486</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37">
+      <c r="F3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="2:7" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="35">
+        <v>2</v>
+      </c>
+      <c r="C4" s="36">
         <v>44486</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="35">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36">
+        <v>44486</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="2:7" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="42">
-        <v>2</v>
-      </c>
-      <c r="C4" s="43">
-        <v>44486</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="42">
-        <v>3</v>
-      </c>
-      <c r="C5" s="43">
-        <v>44486</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="47"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="47"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="47"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="47"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="47"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="47"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="47"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="47"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="47"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="47"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="47"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="2:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
